--- a/KasusClean.xlsx
+++ b/KasusClean.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09099D9-E606-4F9C-B003-D394FA8AABF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F70B9A1-3D2F-4954-A9F0-478DFC42A106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ungkap_kasus" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="293">
   <si>
     <t>No</t>
   </si>
@@ -846,21 +846,6 @@
   </si>
   <si>
     <t>5,38 gram Shabu</t>
-  </si>
-  <si>
-    <t>Pengembangan dari Sleman Banyuurip I, Kel. Banyuurip, Kec. Tegalrejo, Kab. Magelang,</t>
-  </si>
-  <si>
-    <t>1,8 gram Shabu</t>
-  </si>
-  <si>
-    <t>BNNK Sleman</t>
-  </si>
-  <si>
-    <t>Tegalrejo</t>
-  </si>
-  <si>
-    <t>Banyuurip</t>
   </si>
   <si>
     <t>0,32 gram Shabu</t>
@@ -1045,7 +1030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1100,12 +1085,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1421,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L378"/>
+  <dimension ref="A1:L377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="83" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="104" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="N76" sqref="N76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,7 +1648,7 @@
         <v>38</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1705,7 +1684,7 @@
         <v>38</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
@@ -1781,7 +1760,7 @@
         <v>38</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1817,7 +1796,7 @@
         <v>38</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
@@ -2307,7 +2286,7 @@
         <v>111</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2381,7 +2360,7 @@
         <v>111</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2419,7 +2398,7 @@
         <v>118</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
@@ -2455,7 +2434,7 @@
         <v>118</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2493,7 +2472,7 @@
         <v>121</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2529,7 +2508,7 @@
         <v>121</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
@@ -3023,7 +3002,7 @@
         <v>38</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
@@ -3059,7 +3038,7 @@
         <v>38</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
@@ -3095,7 +3074,7 @@
         <v>38</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3133,7 +3112,7 @@
         <v>121</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
@@ -3169,7 +3148,7 @@
         <v>121</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3207,7 +3186,7 @@
         <v>123</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
@@ -3243,11 +3222,11 @@
         <v>123</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22">
+      <c r="A49" s="20">
         <v>37</v>
       </c>
       <c r="B49" s="15">
@@ -3281,11 +3260,11 @@
         <v>160</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="15">
         <v>2024</v>
       </c>
@@ -3317,7 +3296,7 @@
         <v>160</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
@@ -3777,7 +3756,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="24">
+      <c r="A63" s="22">
         <v>50</v>
       </c>
       <c r="B63" s="5">
@@ -3811,11 +3790,11 @@
         <v>88</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="64" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="24"/>
+      <c r="A64" s="22"/>
       <c r="B64" s="5">
         <v>2025</v>
       </c>
@@ -3847,7 +3826,7 @@
         <v>88</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" spans="1:12" s="3" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3889,7 +3868,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="24">
+      <c r="A66" s="22">
         <v>52</v>
       </c>
       <c r="B66" s="6">
@@ -3927,7 +3906,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="24"/>
+      <c r="A67" s="22"/>
       <c r="B67" s="6">
         <v>2025</v>
       </c>
@@ -4114,7 +4093,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>57</v>
       </c>
@@ -4122,25 +4101,25 @@
         <v>2025</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>274</v>
+        <v>40</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>275</v>
+        <v>41</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H72" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>273</v>
+        <v>113</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="J72" s="6">
         <v>1</v>
@@ -4148,11 +4127,11 @@
       <c r="K72" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L72" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L72" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>58</v>
       </c>
@@ -4160,22 +4139,22 @@
         <v>2025</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="I73" s="5" t="s">
         <v>110</v>
@@ -4183,11 +4162,11 @@
       <c r="J73" s="6">
         <v>1</v>
       </c>
-      <c r="K73" s="6" t="s">
-        <v>38</v>
+      <c r="K73" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
@@ -4198,22 +4177,22 @@
         <v>2025</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>110</v>
@@ -4222,13 +4201,13 @@
         <v>1</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>60</v>
       </c>
@@ -4263,11 +4242,11 @@
         <v>123</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="24">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
         <v>61</v>
       </c>
       <c r="B76" s="6">
@@ -4283,10 +4262,10 @@
         <v>35</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>203</v>
@@ -4301,11 +4280,13 @@
         <v>123</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="24"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>62</v>
+      </c>
       <c r="B77" s="6">
         <v>2025</v>
       </c>
@@ -4313,19 +4294,19 @@
         <v>58</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I77" s="5" t="s">
         <v>110</v>
@@ -4334,15 +4315,15 @@
         <v>1</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="24">
-        <v>62</v>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>63</v>
       </c>
       <c r="B78" s="6">
         <v>2025</v>
@@ -4354,13 +4335,13 @@
         <v>188</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>52</v>
+        <v>209</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>207</v>
@@ -4375,11 +4356,13 @@
         <v>208</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="24"/>
+      <c r="A79" s="6">
+        <v>64</v>
+      </c>
       <c r="B79" s="6">
         <v>2025</v>
       </c>
@@ -4390,16 +4373,16 @@
         <v>188</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>77</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>207</v>
+        <v>52</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>110</v>
@@ -4408,112 +4391,112 @@
         <v>1</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>208</v>
+        <v>126</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" s="8" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>63</v>
-      </c>
-      <c r="B80" s="6">
+        <v>65</v>
+      </c>
+      <c r="B80" s="5">
         <v>2025</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>211</v>
+      <c r="C80" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="J80" s="6">
+      <c r="J80" s="5">
         <v>1</v>
       </c>
       <c r="K80" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>66</v>
+      </c>
+      <c r="B81" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J81" s="6">
+        <v>1</v>
+      </c>
+      <c r="K81" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="L80" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" s="8" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
-        <v>64</v>
-      </c>
-      <c r="B81" s="5">
-        <v>2025</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="J81" s="5">
-        <v>1</v>
-      </c>
-      <c r="K81" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="L81" s="5" t="s">
-        <v>214</v>
+      <c r="L81" s="6" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="82" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B82" s="6">
         <v>2025</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>217</v>
+        <v>87</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="H82" s="5" t="s">
-        <v>215</v>
+      <c r="H82" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="I82" s="5" t="s">
         <v>110</v>
@@ -4525,50 +4508,50 @@
         <v>126</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>66</v>
-      </c>
-      <c r="B83" s="6">
+        <v>68</v>
+      </c>
+      <c r="B83" s="5">
         <v>2025</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E83" s="6" t="s">
+      <c r="C83" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E83" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>218</v>
+        <v>130</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="I83" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="J83" s="6">
+      <c r="J83" s="5">
         <v>1</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="L83" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="21">
-        <v>67</v>
+        <v>221</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>69</v>
       </c>
       <c r="B84" s="5">
         <v>2025</v>
@@ -4585,8 +4568,8 @@
       <c r="F84" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G84" s="5" t="s">
-        <v>52</v>
+      <c r="G84" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>220</v>
@@ -4601,31 +4584,33 @@
         <v>221</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="21"/>
-      <c r="B85" s="5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>70</v>
+      </c>
+      <c r="B85" s="6">
         <v>2025</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E85" s="5" t="s">
+      <c r="C85" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I85" s="5" t="s">
         <v>110</v>
@@ -4634,15 +4619,15 @@
         <v>1</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>221</v>
+        <v>123</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="21">
-        <v>68</v>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>71</v>
       </c>
       <c r="B86" s="6">
         <v>2025</v>
@@ -4657,10 +4642,10 @@
         <v>35</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>222</v>
@@ -4675,31 +4660,33 @@
         <v>123</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="21"/>
-      <c r="B87" s="6">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
+        <v>72</v>
+      </c>
+      <c r="B87" s="5">
         <v>2025</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>130</v>
+        <v>46</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>52</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I87" s="5" t="s">
         <v>110</v>
@@ -4708,15 +4695,15 @@
         <v>1</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="24">
-        <v>69</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
+        <v>73</v>
       </c>
       <c r="B88" s="5">
         <v>2025</v>
@@ -4731,7 +4718,7 @@
         <v>35</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>52</v>
@@ -4749,31 +4736,33 @@
         <v>38</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="89" spans="1:12" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="24"/>
-      <c r="B89" s="5">
+      <c r="A89" s="6">
+        <v>74</v>
+      </c>
+      <c r="B89" s="6">
         <v>2025</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F89" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F89" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H89" s="5" t="s">
-        <v>223</v>
+        <v>112</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I89" s="5" t="s">
         <v>110</v>
@@ -4781,37 +4770,37 @@
       <c r="J89" s="5">
         <v>1</v>
       </c>
-      <c r="K89" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L89" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="K89" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L89" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B90" s="6">
         <v>2025</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>224</v>
+        <v>151</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>227</v>
       </c>
       <c r="I90" s="5" t="s">
         <v>110</v>
@@ -4819,16 +4808,16 @@
       <c r="J90" s="5">
         <v>1</v>
       </c>
-      <c r="K90" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L90" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="21">
-        <v>71</v>
+      <c r="K90" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
+        <v>76</v>
       </c>
       <c r="B91" s="6">
         <v>2025</v>
@@ -4843,10 +4832,10 @@
         <v>35</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>206</v>
+        <v>130</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="H91" s="14" t="s">
         <v>227</v>
@@ -4861,30 +4850,32 @@
         <v>111</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="21"/>
-      <c r="B92" s="6">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
+        <v>77</v>
+      </c>
+      <c r="B92" s="5">
         <v>2025</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="6" t="s">
         <v>228</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G92" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H92" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H92" s="5" t="s">
         <v>227</v>
       </c>
       <c r="I92" s="5" t="s">
@@ -4896,13 +4887,13 @@
       <c r="K92" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L92" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="24">
-        <v>72</v>
+      <c r="L92" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
+        <v>78</v>
       </c>
       <c r="B93" s="5">
         <v>2025</v>
@@ -4917,7 +4908,7 @@
         <v>35</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>206</v>
+        <v>130</v>
       </c>
       <c r="G93" s="6" t="s">
         <v>109</v>
@@ -4935,31 +4926,33 @@
         <v>111</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="94" spans="1:12" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="24"/>
-      <c r="B94" s="5">
+      <c r="A94" s="6">
+        <v>79</v>
+      </c>
+      <c r="B94" s="6">
         <v>2025</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F94" s="13" t="s">
-        <v>130</v>
+        <v>230</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I94" s="5" t="s">
         <v>110</v>
@@ -4968,36 +4961,36 @@
         <v>1</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
-        <v>73</v>
-      </c>
-      <c r="B95" s="6">
+        <v>80</v>
+      </c>
+      <c r="B95" s="5">
         <v>2025</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F95" s="6" t="s">
+      <c r="C95" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F95" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G95" s="6" t="s">
+      <c r="G95" s="5" t="s">
         <v>112</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I95" s="5" t="s">
         <v>110</v>
@@ -5008,13 +5001,13 @@
       <c r="K95" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="L95" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="5">
-        <v>74</v>
+      <c r="L95" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="6">
+        <v>81</v>
       </c>
       <c r="B96" s="5">
         <v>2025</v>
@@ -5023,19 +5016,19 @@
         <v>49</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>232</v>
+        <v>133</v>
+      </c>
+      <c r="H96" s="14" t="s">
+        <v>235</v>
       </c>
       <c r="I96" s="5" t="s">
         <v>110</v>
@@ -5047,109 +5040,109 @@
         <v>126</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="5">
-        <v>75</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="6">
+        <v>82</v>
       </c>
       <c r="B97" s="5">
         <v>2025</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F97" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J97" s="5">
+        <v>1</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L97" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="6">
+        <v>83</v>
+      </c>
+      <c r="B98" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F98" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G97" s="5" t="s">
+      <c r="G98" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J98" s="5">
+        <v>1</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
+        <v>84</v>
+      </c>
+      <c r="B99" s="5">
+        <v>2025</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G99" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H97" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="I97" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="J97" s="5">
-        <v>1</v>
-      </c>
-      <c r="K97" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="L97" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="5">
-        <v>76</v>
-      </c>
-      <c r="B98" s="5">
-        <v>2025</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I98" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="J98" s="5">
-        <v>1</v>
-      </c>
-      <c r="K98" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L98" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="6">
-        <v>77</v>
-      </c>
-      <c r="B99" s="6">
-        <v>2025</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="H99" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I99" s="5" t="s">
         <v>110</v>
@@ -5160,13 +5153,13 @@
       <c r="K99" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="L99" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="21">
-        <v>78</v>
+      <c r="L99" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
+        <v>85</v>
       </c>
       <c r="B100" s="5">
         <v>2025</v>
@@ -5180,11 +5173,11 @@
       <c r="E100" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F100" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>133</v>
+      <c r="F100" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>242</v>
@@ -5202,28 +5195,30 @@
         <v>245</v>
       </c>
     </row>
-    <row r="101" spans="1:12" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="21"/>
+    <row r="101" spans="1:12" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="6">
+        <v>86</v>
+      </c>
       <c r="B101" s="5">
         <v>2025</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F101" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>112</v>
+      <c r="F101" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I101" s="5" t="s">
         <v>110</v>
@@ -5235,33 +5230,33 @@
         <v>123</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="102" spans="1:12" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="5">
-        <v>79</v>
+      <c r="A102" s="6">
+        <v>87</v>
       </c>
       <c r="B102" s="5">
         <v>2025</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I102" s="5" t="s">
         <v>110</v>
@@ -5270,36 +5265,36 @@
         <v>1</v>
       </c>
       <c r="K102" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="5">
-        <v>80</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
+        <v>88</v>
       </c>
       <c r="B103" s="5">
         <v>2025</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="H103" s="5" t="s">
-        <v>246</v>
+      <c r="H103" s="14" t="s">
+        <v>248</v>
       </c>
       <c r="I103" s="5" t="s">
         <v>110</v>
@@ -5308,36 +5303,36 @@
         <v>1</v>
       </c>
       <c r="K103" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="5">
-        <v>81</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
+        <v>89</v>
       </c>
       <c r="B104" s="5">
         <v>2025</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H104" s="14" t="s">
-        <v>248</v>
+        <v>109</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>251</v>
       </c>
       <c r="I104" s="5" t="s">
         <v>110</v>
@@ -5346,50 +5341,13 @@
         <v>1</v>
       </c>
       <c r="K104" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="5">
-        <v>82</v>
-      </c>
-      <c r="B105" s="5">
-        <v>2025</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H105" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="I105" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="J105" s="5">
-        <v>1</v>
-      </c>
-      <c r="K105" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="L105" s="5" t="s">
         <v>252</v>
       </c>
     </row>
+    <row r="105" spans="1:12" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
     <row r="106" spans="1:12" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
     <row r="107" spans="1:12" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
     <row r="108" spans="1:12" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
@@ -5662,20 +5620,11 @@
     <row r="375" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
     <row r="376" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
     <row r="377" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="378" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A100:A101"/>
+  <mergeCells count="3">
     <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A76:A77"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A91:A92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
